--- a/DowloadMauPhieuNhap.xlsx
+++ b/DowloadMauPhieuNhap.xlsx
@@ -15,37 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>SỞ GD&amp;ĐT HƯNG YÊN</t>
   </si>
   <si>
-    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+    <t>Mẫu số 04A</t>
   </si>
   <si>
     <t>TRUNG TÂM GDNN &amp; GDTX TỈNH HƯNG YÊN</t>
   </si>
   <si>
-    <t>Độc lập - Tự do - Hạnh phúc</t>
-  </si>
-  <si>
-    <t>---------o0o---------</t>
-  </si>
-  <si>
-    <t>Số:</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="16"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">BIÊN BẢN</t>
+      <t xml:space="preserve">Ban hành theo QĐ 15/2016 của Bộ trưởng</t>
     </r>
     <r>
       <rPr>
@@ -57,57 +39,41 @@
         <sz val="13"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t xml:space="preserve"/>
     </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="13"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">NHẬP THIẾT BỊ &amp; ĐỒ DÙNG DẠY HỌC VÀO KHO</t>
-    </r>
-  </si>
-  <si>
-    <t>Ngày: 01/04/2023</t>
-  </si>
-  <si>
-    <t>Chúng tôi, những người sau lập biên bản:</t>
-  </si>
-  <si>
-    <t>1)</t>
-  </si>
-  <si>
-    <t>2)</t>
-  </si>
-  <si>
-    <t>3)</t>
-  </si>
-  <si>
-    <t>4)</t>
-  </si>
-  <si>
-    <t>Chứng nhận nay nhập vào kho thiết bị:</t>
-  </si>
-  <si>
-    <t>Nhập tại kho: Kho TBDH môn Vật Lý</t>
-  </si>
-  <si>
-    <t>Theo hóa đơn số: 1</t>
-  </si>
-  <si>
-    <t>Ngày: 13/04/2023</t>
+  </si>
+  <si>
+    <t>---------o0o---------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bộ Tài Chính </t>
+  </si>
+  <si>
+    <t>Số phiếu:</t>
+  </si>
+  <si>
+    <t>PHIẾU NHẬP KHO</t>
+  </si>
+  <si>
+    <t>Ngày: 03/04/2023</t>
+  </si>
+  <si>
+    <t>Nhập tại kho: Kho TBDH môn Công Nghệ</t>
+  </si>
+  <si>
+    <t>Theo hóa đơn số: 3</t>
+  </si>
+  <si>
+    <t>Ngày:</t>
+  </si>
+  <si>
+    <t>01/04/2023</t>
   </si>
   <si>
     <t>Của: Nhà cung cấp khác</t>
   </si>
   <si>
-    <t>Diễn Giải: bbb</t>
+    <t>Diễn Giải: bbbaa4</t>
   </si>
   <si>
     <t>TT</t>
@@ -116,22 +82,22 @@
     <t>Tên thiết bị dạy học, quy cách</t>
   </si>
   <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
     <t>ĐVT</t>
   </si>
   <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
     <t>Đơn giá</t>
   </si>
   <si>
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Tư vấn nghề</t>
-  </si>
-  <si>
-    <t>Cái</t>
+    <t>Các bài hát dành cho thanh niên, học sinh phục vụ các chủ đề hoạt động của các tháng</t>
+  </si>
+  <si>
+    <t>Bộ</t>
   </si>
   <si>
     <t>Cộng tiền</t>
@@ -143,25 +109,13 @@
     <t>Kèm theo ………… chứng từ gốc</t>
   </si>
   <si>
-    <t>Ngày ……….tháng……năm………</t>
-  </si>
-  <si>
-    <t>Người giao                     Thủ kho</t>
-  </si>
-  <si>
-    <t>Phụ trách kế toán</t>
-  </si>
-  <si>
-    <t>Thủ trưởng đơn vị</t>
-  </si>
-  <si>
-    <t>(Ký, ghi rõ họ tên)        (Ký, ghi rõ họ tên)</t>
-  </si>
-  <si>
-    <t>(Ký, ghi rõ họ tên)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Ký, ghi rõ họ tên) </t>
+    <t>Ngày……tháng……năm……</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Người giao                        Thủ kho                 Phụ trách kế toán        Thủ trưởng đơn vị</t>
+  </si>
+  <si>
+    <t>(Ký, ghi rõ họ tên)          (Ký, ghi rõ họ tên)         (Ký, ghi rõ họ tên)         (Ký, ghi rõ họ tên)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -178,15 +132,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <b val="1"/>
@@ -199,7 +144,7 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="1"/>
+      <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="13"/>
@@ -228,8 +173,17 @@
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
+      <u val="single"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
       <u val="none"/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -238,16 +192,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -272,6 +217,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -286,22 +247,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -316,102 +261,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="3" fillId="2" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="3" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,343 +660,285 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="21" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="true" style="0"/>
-    <col min="2" max="2" width="39.44140625" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.5546875" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.44140625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.88671875" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15.6640625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4.44140625" customWidth="true" style="3"/>
+    <col min="2" max="2" width="38" customWidth="true" style="3"/>
+    <col min="3" max="3" width="8.88671875" customWidth="true" style="3"/>
+    <col min="4" max="4" width="6.6640625" customWidth="true" style="3"/>
+    <col min="5" max="5" width="11.44140625" customWidth="true" style="3"/>
+    <col min="6" max="6" width="15" customWidth="true" style="3"/>
+    <col min="7" max="7" width="12.109375" customWidth="true" style="3"/>
+    <col min="8" max="8" width="14.5546875" customWidth="true" style="3"/>
+    <col min="9" max="9" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" customHeight="1" ht="16.5">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A2" s="27" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" customHeight="1" ht="16.5">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A3" s="27" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:10" customHeight="1" ht="16.5">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A4" s="2"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" customHeight="1" ht="27">
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" customHeight="1" ht="27.75">
+      <c r="A5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" customHeight="1" ht="24.75">
+      <c r="A6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" customHeight="1" ht="21">
+      <c r="A7" s="7"/>
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" customHeight="1" ht="21">
+      <c r="A8" s="7"/>
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" customHeight="1" ht="38.25">
-      <c r="A5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" customHeight="1" ht="23.25">
-      <c r="A6" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" customHeight="1" ht="21">
+      <c r="A9" s="7"/>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" customHeight="1" ht="21">
+      <c r="A10" s="7"/>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" customHeight="1" ht="18.75">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" customHeight="1" ht="15.75">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" customHeight="1" ht="21">
+      <c r="A12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" customHeight="1" ht="21">
+      <c r="A13" s="23">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
+        <v>12345</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" customHeight="1" ht="16.8">
       <c r="A14" s="9"/>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A19" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F14" s="22">
+        <v>12345</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" customHeight="1" ht="21">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" customHeight="1" ht="21">
+      <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A20" s="18">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19" t="s">
+    <row r="17" spans="1:10" customHeight="1" ht="21">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="18">
-        <v>2</v>
-      </c>
-      <c r="F20" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" customHeight="1" ht="16.8">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22" t="s">
+    </row>
+    <row r="18" spans="1:10" customHeight="1" ht="21">
+      <c r="A18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" customHeight="1" ht="16.8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" customHeight="1" ht="16.8">
-      <c r="A23" s="12" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" customHeight="1" ht="21">
+      <c r="A19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" customHeight="1" ht="15.75">
-      <c r="A25" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" customHeight="1" ht="21">
-      <c r="A26" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" customHeight="1" ht="23.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="16"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.27" right="0.28" top="0.42" bottom="0.75" header="0.43" footer="0.3"/>
+  <pageMargins left="0.54" right="0.49" top="0.53" bottom="0.74803149606299" header="0.21" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>

--- a/DowloadMauPhieuNhap.xlsx
+++ b/DowloadMauPhieuNhap.xlsx
@@ -55,7 +55,7 @@
     <t>PHIẾU NHẬP KHO</t>
   </si>
   <si>
-    <t>Ngày: 03/04/2023</t>
+    <t>Ngày: 09/04/2023</t>
   </si>
   <si>
     <t>Nhập tại kho: Kho TBDH môn Công Nghệ</t>
@@ -94,10 +94,10 @@
     <t>Thành tiền</t>
   </si>
   <si>
-    <t>Các bài hát dành cho thanh niên, học sinh phục vụ các chủ đề hoạt động của các tháng</t>
-  </si>
-  <si>
-    <t>Bộ</t>
+    <t>Tấm gương của những người thành đạt</t>
+  </si>
+  <si>
+    <t>Cái</t>
   </si>
   <si>
     <t>Cộng tiền</t>
@@ -660,7 +660,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F9" sqref="F9"/>
@@ -849,85 +849,173 @@
         <v>21</v>
       </c>
       <c r="C13" s="23">
-        <v>1</v>
+        <v>1810</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="23">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F13" s="23">
-        <v>12345</v>
+        <v>3258000</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:10" customHeight="1" ht="16.8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="22">
-        <v>12345</v>
+    <row r="14" spans="1:10" customHeight="1" ht="21">
+      <c r="A14" s="23">
+        <v>2</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="23">
+        <v>8</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="23">
+        <v>14400</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:10" customHeight="1" ht="21">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="23">
+        <v>3</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="23">
+        <v>10</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="23">
+        <v>18000</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:10" customHeight="1" ht="21">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="23">
+        <v>4</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="23">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="23">
+        <v>18000</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" customHeight="1" ht="21">
+      <c r="A17" s="23">
+        <v>5</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="23">
+        <v>2</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="23">
+        <v>3600</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" customHeight="1" ht="16.8">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="22">
+        <v>3312000</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" customHeight="1" ht="21">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" customHeight="1" ht="21">
+      <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:10" customHeight="1" ht="21">
-      <c r="B17" s="4" t="s">
+    <row r="21" spans="1:10" customHeight="1" ht="21">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E21" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" customHeight="1" ht="21">
-      <c r="A18" s="24" t="s">
+    <row r="22" spans="1:10" customHeight="1" ht="21">
+      <c r="A22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" customHeight="1" ht="21">
-      <c r="A19" s="25" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" customHeight="1" ht="21">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="16"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:B1"/>

--- a/DowloadMauPhieuNhap.xlsx
+++ b/DowloadMauPhieuNhap.xlsx
@@ -55,7 +55,7 @@
     <t>PHIẾU NHẬP KHO</t>
   </si>
   <si>
-    <t>Ngày: 09/04/2023</t>
+    <t>Ngày: 16/04/2023</t>
   </si>
   <si>
     <t>Nhập tại kho: Kho TBDH môn Công Nghệ</t>
@@ -660,7 +660,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F9" sqref="F9"/>
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="23">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>22</v>
@@ -858,7 +858,7 @@
         <v>2000</v>
       </c>
       <c r="F13" s="23">
-        <v>3258000</v>
+        <v>3254400</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -871,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>22</v>
@@ -880,142 +880,76 @@
         <v>2000</v>
       </c>
       <c r="F14" s="23">
-        <v>14400</v>
+        <v>3600</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:10" customHeight="1" ht="21">
-      <c r="A15" s="23">
-        <v>3</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="23">
-        <v>10</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="23">
-        <v>2000</v>
-      </c>
-      <c r="F15" s="23">
-        <v>18000</v>
+    <row r="15" spans="1:10" customHeight="1" ht="16.8">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="22">
+        <v>3258000</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:10" customHeight="1" ht="21">
-      <c r="A16" s="23">
-        <v>4</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="23">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="23">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="23">
-        <v>18000</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:10" customHeight="1" ht="21">
-      <c r="A17" s="23">
-        <v>5</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="23">
-        <v>2</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="23">
-        <v>2000</v>
-      </c>
-      <c r="F17" s="23">
-        <v>3600</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.8">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="22">
-        <v>3312000</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A17" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" customHeight="1" ht="21">
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:10" customHeight="1" ht="21">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="A19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:10" customHeight="1" ht="21">
-      <c r="A20" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="21">
-      <c r="B21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="21">
-      <c r="A22" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="21">
-      <c r="A23" s="25" t="s">
+      <c r="A20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="16"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="16"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:B1"/>
